--- a/文档/正源/项目资料集合.xlsx
+++ b/文档/正源/项目资料集合.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -831,11 +831,66 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="D:\文档\Tencent Files\2354557520\Image\C2C\Image2\`SM@JJ78G8LN{B4[SG8MLJI.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="3600450"/>
+          <a:ext cx="1990725" cy="1228725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -877,7 +932,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -912,7 +967,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1124,7 +1179,7 @@
   <dimension ref="E1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/文档/正源/项目资料集合.xlsx
+++ b/文档/正源/项目资料集合.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -39,9 +39,6 @@
     <t>账号：zxt</t>
   </si>
   <si>
-    <t>密码：Genuineznzd@2016</t>
-  </si>
-  <si>
     <t>有源数据库002  AIS20090714202245</t>
   </si>
   <si>
@@ -510,6 +507,10 @@
 FBillerID,FCheckDate,(select FBOMNumber from icbom where icbom.FInterID= ICmo.FBomInterID) as FBOMNumber,(select FVersion from icbom where icbom.FInterID= ICmo.FBomInterID) as FVersion,FStatus,FAuxQty,FUnitID,FType,
 FPlanCommitDate,FPlanFinishDate,FWorkShop,FWorkTypeID,FConfirmDate FROM ICmo  
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码：Genuineznzd@2016</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -831,66 +832,11 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr="D:\文档\Tencent Files\2354557520\Image\C2C\Image2\`SM@JJ78G8LN{B4[SG8MLJI.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3600450"/>
-          <a:ext cx="1990725" cy="1228725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -932,7 +878,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -967,7 +913,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1178,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1198,10 +1144,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="5:7" x14ac:dyDescent="0.15">
@@ -1221,22 +1167,22 @@
     </row>
     <row r="8" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E8" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="5:7" ht="27" x14ac:dyDescent="0.15">
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1272,417 +1218,417 @@
     <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="23"/>
       <c r="D2" s="6"/>
       <c r="E2" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="22"/>
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>75</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="13"/>
       <c r="F4" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>63</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="14" t="s">
         <v>79</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="14" t="s">
         <v>82</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>68</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>84</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="6"/>
       <c r="E8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="14" t="s">
         <v>87</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>73</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>74</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="6"/>
       <c r="E10" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>91</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="E11" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>93</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>95</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
       <c r="E13" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>102</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>104</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="17"/>
     </row>
@@ -1715,29 +1661,29 @@
   <sheetData>
     <row r="1" spans="1:3" ht="54" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="135" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/文档/正源/项目资料集合.xlsx
+++ b/文档/正源/项目资料集合.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="125">
   <si>
     <t>17671649129徐工</t>
   </si>
@@ -511,6 +511,10 @@
   </si>
   <si>
     <t>密码：Genuineznzd@2016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试库           0548</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -836,7 +840,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -878,7 +882,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -913,7 +917,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1124,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1178,6 +1182,11 @@
     <row r="10" spans="5:7" x14ac:dyDescent="0.15">
       <c r="E10" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" x14ac:dyDescent="0.15">
+      <c r="E11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="5:7" ht="27" x14ac:dyDescent="0.15">
